--- a/data_kendaraan.xlsx
+++ b/data_kendaraan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Personil\Bonang\Tugas kuliah\Semester 2\Praktikum Programa Komputer\tubes\Tubes-Prokom-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C4AF2-2912-431A-B42F-603591BCC79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC53F5FA-4CFF-4E9A-829E-D2CDFE868B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8955" yWindow="495" windowWidth="12960" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Jenis</t>
   </si>
@@ -68,6 +68,57 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>No Polisi</t>
+  </si>
+  <si>
+    <t>L 4911 SBL</t>
+  </si>
+  <si>
+    <t>L 5383 L</t>
+  </si>
+  <si>
+    <t>L 4491 BT</t>
+  </si>
+  <si>
+    <t>L 8005 EN</t>
+  </si>
+  <si>
+    <t>L 5333 DIH</t>
+  </si>
+  <si>
+    <t>L 38 DIL</t>
+  </si>
+  <si>
+    <t>L 18 BON</t>
+  </si>
+  <si>
+    <t>L 42 FUN</t>
+  </si>
+  <si>
+    <t>L 35 VZL</t>
+  </si>
+  <si>
+    <t>L 25 DSY</t>
+  </si>
+  <si>
+    <t>L 1111 BUR</t>
+  </si>
+  <si>
+    <t>L 3333 MES</t>
+  </si>
+  <si>
+    <t>L 44 BIL</t>
+  </si>
+  <si>
+    <t>L 39 REK</t>
+  </si>
+  <si>
+    <t>L 4444 PER</t>
+  </si>
+  <si>
+    <t>L 8373 TAU</t>
   </si>
 </sst>
 </file>
@@ -130,7 +181,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -486,15 +539,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -511,10 +567,13 @@
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -530,11 +589,14 @@
       <c r="E2" s="2">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -550,11 +612,14 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -570,11 +635,14 @@
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -590,11 +658,14 @@
       <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -610,11 +681,14 @@
       <c r="E6" s="2">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -630,11 +704,14 @@
       <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -650,11 +727,14 @@
       <c r="E8" s="2">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -670,11 +750,14 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -690,11 +773,14 @@
       <c r="E10" s="2">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -710,11 +796,14 @@
       <c r="E11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -730,11 +819,14 @@
       <c r="E12" s="2">
         <v>8</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -750,11 +842,14 @@
       <c r="E13" s="2">
         <v>8</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -770,11 +865,14 @@
       <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -790,11 +888,14 @@
       <c r="E15" s="2">
         <v>8</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -810,11 +911,14 @@
       <c r="E16" s="2">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -830,7 +934,10 @@
       <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
